--- a/ExportedFolder/Invoice2_1-1.xlsx
+++ b/ExportedFolder/Invoice2_1-1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <x:si>
     <x:t>Vendor Address</x:t>
   </x:si>
@@ -55,34 +55,21 @@
     <x:t>Items - Confidence</x:t>
   </x:si>
   <x:si>
-    <x:t>128 AA Juanita Ave Glendora CA 91740</x:t>
+    <x:t>2014-11-14</x:t>
   </x:si>
   <x:si>
     <x:t>1</x:t>
   </x:si>
   <x:si>
-    <x:t>Nov 14th ,2014</x:t>
-  </x:si>
-  <x:si>
     <x:t>INV-55033645</x:t>
   </x:si>
   <x:si>
-    <x:t>$11,446.60</x:t>
+    <x:t>11446.60</x:t>
   </x:si>
   <x:si>
     <x:t>table</x:t>
   </x:si>
   <x:si>
-    <x:t>Key,Value
-"Address Line 1","128 AA Juanita Ave"
-"Address Line 2",""
-"Address Line 3",""
-"City","Glendora"
-"Country","United States"
-"State / County / Province","California"
-"Zip Postal Code","91740"</x:t>
-  </x:si>
-  <x:si>
     <x:t>Description</x:t>
   </x:si>
   <x:si>
@@ -107,7 +94,7 @@
     <x:t>Amount - Confidence</x:t>
   </x:si>
   <x:si>
-    <x:t>AMD Athlon X2DC-7450 2.4GHzN1GB/15DGB/SMP.DVDNB</x:t>
+    <x:t>AMD Athlon X2DC-7450</x:t>
   </x:si>
   <x:si>
     <x:t>6</x:t>
@@ -119,13 +106,22 @@
     <x:t>3480.00</x:t>
   </x:si>
   <x:si>
+    <x:t>2.4GHzN1GB/15DGB/SMP.DVDNB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$580.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$3,480.00</x:t>
+  </x:si>
+  <x:si>
     <x:t>PDC-E5300 2.6GHz/1GBr32DGBISMP.DVDIFDOWB</x:t>
   </x:si>
   <x:si>
     <x:t>4</x:t>
   </x:si>
   <x:si>
-    <x:t>645.00</x:t>
+    <x:t>$645.00</x:t>
   </x:si>
   <x:si>
     <x:t>2580.00</x:t>
@@ -144,6 +140,9 @@
   </x:si>
   <x:si>
     <x:t>HP LaserJet 5200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$1,100.00</x:t>
   </x:si>
   <x:si>
     <x:t>1100.00</x:t>
@@ -204,7 +203,31 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="4">
+  <x:cellStyleXfs count="12">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -567,32 +590,26 @@
       </x:c>
     </x:row>
     <x:row r="2" spans="1:12">
-      <x:c r="C2" s="0" t="s">
+      <x:c r="E2" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="D2" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E2" s="0" t="s">
+      <x:c r="F2" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="F2" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="G2" s="0" t="s">
+      <x:c r="H2" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="I2" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="H2" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="I2" s="0" t="s">
+      <x:c r="J2" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="K2" s="0" t="s">
         <x:v>16</x:v>
-      </x:c>
-      <x:c r="J2" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="K2" s="0" t="s">
-        <x:v>17</x:v>
       </x:c>
       <x:c r="L2" s="0" t="s">
         <x:v>13</x:v>
@@ -657,29 +674,27 @@
       </x:c>
     </x:row>
     <x:row r="2" spans="1:12">
-      <x:c r="C2" s="1" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="D2" s="0" t="s">
-        <x:v>13</x:v>
+      <x:c r="C2" s="1" t="s"/>
+      <x:c r="E2" s="0" t="s">
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="G2" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="I2" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="H2" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="I2" s="0" t="s">
+      <x:c r="J2" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="K2" s="0" t="s">
         <x:v>16</x:v>
-      </x:c>
-      <x:c r="J2" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="K2" s="0" t="s">
-        <x:v>17</x:v>
       </x:c>
       <x:c r="L2" s="0" t="s">
         <x:v>13</x:v>
@@ -707,51 +722,51 @@
   <x:sheetData>
     <x:row r="1" spans="1:8">
       <x:c r="A1" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="B1" s="0" t="s">
+      <x:c r="D1" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="C1" s="0" t="s">
+      <x:c r="E1" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="D1" s="0" t="s">
+      <x:c r="F1" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="E1" s="0" t="s">
+      <x:c r="G1" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="F1" s="0" t="s">
+      <x:c r="H1" s="0" t="s">
         <x:v>24</x:v>
-      </x:c>
-      <x:c r="G1" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="H1" s="0" t="s">
-        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:8">
       <x:c r="A2" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="B2" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C2" s="0" t="s">
+      <x:c r="F2" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
         <x:v>28</x:v>
-      </x:c>
-      <x:c r="D2" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E2" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="F2" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="G2" s="0" t="s">
-        <x:v>30</x:v>
       </x:c>
       <x:c r="H2" s="0" t="s">
         <x:v>13</x:v>
@@ -759,25 +774,25 @@
     </x:row>
     <x:row r="3" spans="1:8">
       <x:c r="A3" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
         <x:v>31</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="D3" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E3" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="F3" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="G3" s="0" t="s">
-        <x:v>34</x:v>
       </x:c>
       <x:c r="H3" s="0" t="s">
         <x:v>13</x:v>
@@ -785,25 +800,25 @@
     </x:row>
     <x:row r="4" spans="1:8">
       <x:c r="A4" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
         <x:v>35</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="D4" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E4" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="F4" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="G4" s="0" t="s">
-        <x:v>38</x:v>
       </x:c>
       <x:c r="H4" s="0" t="s">
         <x:v>13</x:v>
@@ -811,27 +826,53 @@
     </x:row>
     <x:row r="5" spans="1:8">
       <x:c r="A5" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E5" s="0" t="s">
+      <x:c r="H5" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:8">
+      <x:c r="A6" s="0" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="F5" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="G5" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="H5" s="0" t="s">
+      <x:c r="B6" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="H6" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
@@ -857,51 +898,51 @@
   <x:sheetData>
     <x:row r="1" spans="1:8">
       <x:c r="A1" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="B1" s="0" t="s">
+      <x:c r="D1" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="C1" s="0" t="s">
+      <x:c r="E1" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="D1" s="0" t="s">
+      <x:c r="F1" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="E1" s="0" t="s">
+      <x:c r="G1" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="F1" s="0" t="s">
+      <x:c r="H1" s="0" t="s">
         <x:v>24</x:v>
-      </x:c>
-      <x:c r="G1" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="H1" s="0" t="s">
-        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:8">
       <x:c r="A2" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="B2" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C2" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="D2" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E2" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
       <x:c r="F2" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="G2" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H2" s="0" t="s">
         <x:v>13</x:v>
@@ -909,25 +950,25 @@
     </x:row>
     <x:row r="3" spans="1:8">
       <x:c r="A3" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
         <x:v>31</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="D3" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E3" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="F3" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="G3" s="0" t="s">
-        <x:v>34</x:v>
       </x:c>
       <x:c r="H3" s="0" t="s">
         <x:v>13</x:v>
@@ -935,25 +976,25 @@
     </x:row>
     <x:row r="4" spans="1:8">
       <x:c r="A4" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
         <x:v>35</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="D4" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E4" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="F4" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="G4" s="0" t="s">
-        <x:v>38</x:v>
       </x:c>
       <x:c r="H4" s="0" t="s">
         <x:v>13</x:v>
@@ -961,27 +1002,53 @@
     </x:row>
     <x:row r="5" spans="1:8">
       <x:c r="A5" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E5" s="0" t="s">
+      <x:c r="H5" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:8">
+      <x:c r="A6" s="0" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="F5" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="G5" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="H5" s="0" t="s">
+      <x:c r="B6" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="H6" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
